--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npolyakova\Documents\СОТРУДНИКИ\PYTHON\Файлы\примерPYTHON\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -18,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$21:$F$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Алгоритм заполнения</t>
   </si>
@@ -157,32 +152,20 @@
     <t>в файле ОТЧЕТ - подсветить красным строку, если строка не найдена хотя бы в одном из 4х файлов</t>
   </si>
   <si>
-    <t>3.1) подсветить зеленым сравниваемую ячейку, если условие выполнено (условие указано в таблице)</t>
-  </si>
-  <si>
-    <t>3.2) подсветить желтым сравниваемую ячейку, если условие НЕ выполнено (условие указано в таблице)</t>
-  </si>
-  <si>
     <t>1) первое</t>
   </si>
   <si>
     <t>2) второе</t>
   </si>
   <si>
-    <t>3) третье</t>
-  </si>
-  <si>
     <t>в каждом из 4х фалов - подсветить красным строку, если строка не найдена в файле "ОТЧЕТ"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в каждом  из 5ти файлов </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,21 +836,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C17" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="112.5703125" customWidth="1"/>
@@ -875,7 +858,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -883,7 +866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
@@ -891,8 +874,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -901,14 +884,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="51.75">
       <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="25" t="s">
         <v>38</v>
       </c>
@@ -917,80 +900,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="26"/>
       <c r="B8" s="6"/>
       <c r="C8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="27"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="14"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="14"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="14"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="14"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="14"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="14"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="15"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
       <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
@@ -1004,7 +979,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" thickTop="1">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
